--- a/Resources/Selenium Assignment.xlsx
+++ b/Resources/Selenium Assignment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t xml:space="preserve">1. Launch https://www.policybazaar.com/</t>
   </si>
@@ -140,6 +140,9 @@
     <t xml:space="preserve">ResidentialStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">ExpectedPremium</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITerm-SCN003-TC001</t>
   </si>
   <si>
@@ -191,9 +194,27 @@
     <t xml:space="preserve">Resident Indian</t>
   </si>
   <si>
+    <t xml:space="preserve">1,016</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITerm-SCN001-TC001</t>
   </si>
   <si>
+    <t xml:space="preserve">Vijay Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/08/1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8383883839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Lac to 9.9 Lac</t>
+  </si>
+  <si>
     <t xml:space="preserve">Self Employed</t>
   </si>
   <si>
@@ -215,10 +236,25 @@
     <t xml:space="preserve">Thane</t>
   </si>
   <si>
+    <t xml:space="preserve">1,418</t>
+  </si>
+  <si>
     <t xml:space="preserve">ITerm-SCN001-TC002</t>
   </si>
   <si>
+    <t xml:space="preserve">Sham Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/09/1980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Lac to 14.9 Lac</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dual Protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,830</t>
   </si>
 </sst>
 </file>
@@ -229,7 +265,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,6 +311,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -296,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -311,6 +354,21 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF111111"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF111111"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF111111"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -337,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,20 +408,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -375,6 +441,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF111111"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,10 +512,10 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="S2:S4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.14"/>
   </cols>
@@ -513,238 +639,250 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S2:S4"/>
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="2" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="39.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="2" style="3" width="19.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="3" width="8.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="R2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="S3" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>9876541230</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="L4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>54</v>
+      <c r="R4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Selenium Assignment.xlsx
+++ b/Resources/Selenium Assignment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t xml:space="preserve">1. Launch https://www.policybazaar.com/</t>
   </si>
@@ -255,6 +255,33 @@
   </si>
   <si>
     <t xml:space="preserve">1,830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterm-SCN001-TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rina Kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9874561239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Lac to 6.9 Lac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th Pass &amp; below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323</t>
   </si>
 </sst>
 </file>
@@ -515,7 +542,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.14"/>
   </cols>
@@ -636,10 +663,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,6 +912,65 @@
         <v>76</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
